--- a/docs/개발일정/개발일정계획표.xlsx
+++ b/docs/개발일정/개발일정계획표.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,22 @@
   </si>
   <si>
     <t>연기된 예정 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -832,9 +848,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -842,6 +855,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1145,10 +1167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y69"/>
+  <dimension ref="B2:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AM35" sqref="AM35"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ11" sqref="AJ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1162,6 +1184,9 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>94</v>
+      </c>
       <c r="F2" s="4" t="s">
         <v>63</v>
       </c>
@@ -1180,247 +1205,222 @@
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G4" s="18"/>
+        <v>95</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="H4" s="12"/>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="D5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="D6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="7" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="8" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="48" t="s">
+      <c r="G6" s="13"/>
+    </row>
+    <row r="8" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="48" t="s">
+      <c r="C9" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48" t="s">
+      <c r="D9" s="47"/>
+      <c r="E9" s="47" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="48"/>
-      <c r="G8" s="50" t="s">
+      <c r="F9" s="47"/>
+      <c r="G9" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-      <c r="L8" s="50"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="50"/>
-      <c r="O8" s="50"/>
-      <c r="P8" s="50"/>
-      <c r="Q8" s="50"/>
-      <c r="R8" s="50"/>
-      <c r="S8" s="49" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="48" t="s">
         <v>60</v>
       </c>
-      <c r="T8" s="49"/>
-      <c r="U8" s="49"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="49"/>
-      <c r="Y8" s="49"/>
-    </row>
-    <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="50" t="s">
+      <c r="T9" s="48"/>
+      <c r="U9" s="48"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="48"/>
+      <c r="X9" s="48"/>
+      <c r="Y9" s="48"/>
+    </row>
+    <row r="10" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50" t="s">
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50" t="s">
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="49" t="s">
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="T9" s="49"/>
-      <c r="U9" s="49" t="s">
+      <c r="T10" s="48"/>
+      <c r="U10" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="V9" s="49"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="49"/>
-      <c r="Y9" s="49"/>
-    </row>
-    <row r="10" spans="2:25" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="48"/>
-      <c r="C10" s="22" t="s">
+      <c r="V10" s="48"/>
+      <c r="W10" s="48"/>
+      <c r="X10" s="48"/>
+      <c r="Y10" s="48"/>
+    </row>
+    <row r="11" spans="2:25" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="47"/>
+      <c r="C11" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="23">
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="23">
         <v>16</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H11" s="23">
         <v>17</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I11" s="23">
         <v>18</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J11" s="23">
         <v>19</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K11" s="23">
         <v>22</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L11" s="23">
         <v>23</v>
       </c>
-      <c r="M10" s="23">
+      <c r="M11" s="23">
         <v>24</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N11" s="23">
         <v>25</v>
       </c>
-      <c r="O10" s="23">
+      <c r="O11" s="23">
         <v>26</v>
       </c>
-      <c r="P10" s="23">
+      <c r="P11" s="23">
         <v>29</v>
       </c>
-      <c r="Q10" s="23">
+      <c r="Q11" s="23">
         <v>30</v>
       </c>
-      <c r="R10" s="23">
+      <c r="R11" s="23">
         <v>31</v>
       </c>
-      <c r="S10" s="24">
+      <c r="S11" s="24">
         <v>1</v>
       </c>
-      <c r="T10" s="24">
+      <c r="T11" s="24">
         <v>2</v>
       </c>
-      <c r="U10" s="24">
+      <c r="U11" s="24">
         <v>5</v>
       </c>
-      <c r="V10" s="24">
+      <c r="V11" s="24">
         <v>6</v>
       </c>
-      <c r="W10" s="24">
+      <c r="W11" s="24">
         <v>7</v>
       </c>
-      <c r="X10" s="24">
+      <c r="X11" s="24">
         <v>8</v>
       </c>
-      <c r="Y10" s="24">
+      <c r="Y11" s="24">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B11" s="29">
+    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B12" s="29">
         <v>1</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C12" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D12" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="E12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="36" t="s">
+      <c r="F12" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="39"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="43"/>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="43"/>
-      <c r="S11" s="31"/>
-      <c r="T11" s="43"/>
-      <c r="U11" s="31"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="21"/>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B12" s="30">
-        <v>2</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="15"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="15"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="21"/>
     </row>
     <row r="13" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B13" s="30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" s="28"/>
       <c r="D13" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="26"/>
@@ -1444,25 +1444,23 @@
     </row>
     <row r="14" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B14" s="30">
-        <v>4</v>
-      </c>
-      <c r="C14" s="28" t="s">
-        <v>11</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C14" s="28"/>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G14" s="40"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="44"/>
-      <c r="K14" s="45"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="32"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1480,17 +1478,19 @@
     </row>
     <row r="15" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B15" s="30">
-        <v>5</v>
-      </c>
-      <c r="C15" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>11</v>
+      </c>
       <c r="D15" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="1"/>
@@ -1514,25 +1514,23 @@
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B16" s="30">
-        <v>6</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="C16" s="28"/>
       <c r="D16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="41"/>
-      <c r="H16" s="26"/>
+        <v>15</v>
+      </c>
+      <c r="G16" s="40"/>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="32"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="45"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1550,20 +1548,24 @@
     </row>
     <row r="17" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B17" s="30">
-        <v>7</v>
-      </c>
-      <c r="C17" s="28"/>
+        <v>6</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>16</v>
+      </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" s="41"/>
-      <c r="H17" s="47"/>
+        <v>19</v>
+      </c>
+      <c r="G17" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="51"/>
       <c r="I17" s="1"/>
       <c r="J17" s="15"/>
       <c r="K17" s="32"/>
@@ -1584,20 +1586,22 @@
     </row>
     <row r="18" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B18" s="30">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="46"/>
-      <c r="H18" s="45"/>
+        <v>21</v>
+      </c>
+      <c r="G18" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" s="52"/>
       <c r="I18" s="1"/>
       <c r="J18" s="15"/>
       <c r="K18" s="32"/>
@@ -1618,20 +1622,20 @@
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B19" s="30">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="G19" s="46"/>
+      <c r="H19" s="45"/>
       <c r="I19" s="1"/>
       <c r="J19" s="15"/>
       <c r="K19" s="32"/>
@@ -1652,19 +1656,19 @@
     </row>
     <row r="20" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B20" s="30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="46"/>
+        <v>26</v>
+      </c>
+      <c r="G20" s="40"/>
       <c r="H20" s="14"/>
       <c r="I20" s="1"/>
       <c r="J20" s="15"/>
@@ -1686,21 +1690,21 @@
     </row>
     <row r="21" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B21" s="30">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="G21" s="46"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="1"/>
       <c r="J21" s="15"/>
       <c r="K21" s="32"/>
       <c r="L21" s="1"/>
@@ -1720,17 +1724,17 @@
     </row>
     <row r="22" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B22" s="30">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="26"/>
@@ -1754,19 +1758,17 @@
     </row>
     <row r="23" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B23" s="30">
-        <v>13</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>33</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="C23" s="28"/>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="26"/>
@@ -1790,17 +1792,19 @@
     </row>
     <row r="24" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B24" s="30">
-        <v>14</v>
-      </c>
-      <c r="C24" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>33</v>
+      </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="26"/>
@@ -1824,17 +1828,17 @@
     </row>
     <row r="25" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B25" s="30">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="26"/>
@@ -1858,24 +1862,22 @@
     </row>
     <row r="26" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B26" s="30">
-        <v>16</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>37</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="C26" s="28"/>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G26" s="40"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="35"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="32"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1894,17 +1896,19 @@
     </row>
     <row r="27" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B27" s="30">
-        <v>17</v>
-      </c>
-      <c r="C27" s="28"/>
+        <v>16</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>37</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="1"/>
@@ -1928,17 +1932,17 @@
     </row>
     <row r="28" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B28" s="30">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="28"/>
       <c r="D28" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="1"/>
@@ -1962,24 +1966,22 @@
     </row>
     <row r="29" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B29" s="30">
-        <v>19</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>44</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C29" s="28"/>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="41"/>
+        <v>43</v>
+      </c>
+      <c r="G29" s="40"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="32"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
@@ -1998,19 +2000,21 @@
     </row>
     <row r="30" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B30" s="30">
-        <v>20</v>
-      </c>
-      <c r="C30" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="C30" s="28" t="s">
+        <v>44</v>
+      </c>
       <c r="D30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="G30" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="G30" s="50"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="15"/>
@@ -2032,19 +2036,19 @@
     </row>
     <row r="31" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B31" s="30">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C31" s="28"/>
       <c r="D31" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="G31" s="41"/>
+        <v>48</v>
+      </c>
+      <c r="G31" s="50"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="15"/>
@@ -2066,19 +2070,19 @@
     </row>
     <row r="32" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B32" s="30">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C32" s="28"/>
       <c r="D32" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F32" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="41"/>
+        <v>50</v>
+      </c>
+      <c r="G32" s="50"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="15"/>
@@ -2100,17 +2104,19 @@
     </row>
     <row r="33" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B33" s="30">
+        <v>22</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C33" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="37"/>
-      <c r="G33" s="41"/>
+      <c r="F33" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G33" s="50"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="15"/>
@@ -2132,19 +2138,21 @@
     </row>
     <row r="34" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B34" s="30">
-        <v>24</v>
-      </c>
-      <c r="C34" s="28"/>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
+        <v>23</v>
+      </c>
+      <c r="C34" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="40"/>
+      <c r="G34" s="50"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="45"/>
+      <c r="K34" s="32"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
@@ -2162,11 +2170,11 @@
     </row>
     <row r="35" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B35" s="30">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="28"/>
       <c r="D35" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="37"/>
@@ -2192,11 +2200,11 @@
     </row>
     <row r="36" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B36" s="30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C36" s="28"/>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="37"/>
@@ -2222,11 +2230,11 @@
     </row>
     <row r="37" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B37" s="30">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C37" s="28"/>
       <c r="D37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="37"/>
@@ -2234,8 +2242,8 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="14"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
       <c r="O37" s="15"/>
@@ -2252,11 +2260,11 @@
     </row>
     <row r="38" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B38" s="30">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C38" s="28"/>
       <c r="D38" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="37"/>
@@ -2282,20 +2290,20 @@
     </row>
     <row r="39" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B39" s="30">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C39" s="28"/>
       <c r="D39" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="37"/>
       <c r="G39" s="40"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="26"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="15"/>
       <c r="K39" s="32"/>
-      <c r="L39" s="1"/>
+      <c r="L39" s="14"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
       <c r="O39" s="15"/>
@@ -2312,11 +2320,11 @@
     </row>
     <row r="40" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B40" s="30">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="28"/>
       <c r="D40" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="37"/>
@@ -2342,17 +2350,17 @@
     </row>
     <row r="41" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B41" s="30">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C41" s="28"/>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="37"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="26"/>
       <c r="J41" s="15"/>
       <c r="K41" s="32"/>
       <c r="L41" s="1"/>
@@ -2372,11 +2380,11 @@
     </row>
     <row r="42" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B42" s="30">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="28"/>
       <c r="D42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="37"/>
@@ -2402,11 +2410,11 @@
     </row>
     <row r="43" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B43" s="30">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" s="28"/>
       <c r="D43" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="37"/>
@@ -2432,18 +2440,18 @@
     </row>
     <row r="44" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B44" s="30">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C44" s="28"/>
       <c r="D44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="37"/>
       <c r="G44" s="40"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="35"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="15"/>
       <c r="K44" s="32"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
@@ -2462,11 +2470,11 @@
     </row>
     <row r="45" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B45" s="30">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C45" s="28"/>
       <c r="D45" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="37"/>
@@ -2492,11 +2500,11 @@
     </row>
     <row r="46" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B46" s="30">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C46" s="28"/>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="37"/>
@@ -2522,11 +2530,11 @@
     </row>
     <row r="47" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B47" s="30">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C47" s="28"/>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="37"/>
@@ -2552,11 +2560,11 @@
     </row>
     <row r="48" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B48" s="30">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C48" s="28"/>
       <c r="D48" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="37"/>
@@ -2582,19 +2590,19 @@
     </row>
     <row r="49" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B49" s="30">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C49" s="28"/>
       <c r="D49" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="37"/>
       <c r="G49" s="40"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="45"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="32"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2612,11 +2620,11 @@
     </row>
     <row r="50" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B50" s="30">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C50" s="28"/>
       <c r="D50" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="37"/>
@@ -2642,11 +2650,11 @@
     </row>
     <row r="51" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B51" s="30">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C51" s="28"/>
       <c r="D51" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="37"/>
@@ -2672,19 +2680,19 @@
     </row>
     <row r="52" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B52" s="30">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C52" s="28"/>
       <c r="D52" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="37"/>
       <c r="G52" s="40"/>
-      <c r="H52" s="14"/>
+      <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="32"/>
+      <c r="K52" s="45"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2702,11 +2710,11 @@
     </row>
     <row r="53" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B53" s="30">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C53" s="28"/>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="37"/>
@@ -2732,11 +2740,11 @@
     </row>
     <row r="54" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B54" s="30">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="28"/>
       <c r="D54" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="37"/>
@@ -2762,11 +2770,11 @@
     </row>
     <row r="55" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B55" s="30">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C55" s="28"/>
       <c r="D55" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="37"/>
@@ -2791,13 +2799,17 @@
       <c r="Y55" s="15"/>
     </row>
     <row r="56" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B56" s="5"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
+      <c r="B56" s="30">
+        <v>45</v>
+      </c>
+      <c r="C56" s="28"/>
+      <c r="D56" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E56" s="2"/>
       <c r="F56" s="37"/>
       <c r="G56" s="40"/>
-      <c r="H56" s="1"/>
+      <c r="H56" s="14"/>
       <c r="I56" s="1"/>
       <c r="J56" s="15"/>
       <c r="K56" s="32"/>
@@ -3128,44 +3140,70 @@
       <c r="X68" s="1"/>
       <c r="Y68" s="15"/>
     </row>
-    <row r="69" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="7"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="16"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="17"/>
-      <c r="K69" s="33"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="16"/>
-      <c r="N69" s="16"/>
-      <c r="O69" s="17"/>
-      <c r="P69" s="33"/>
-      <c r="Q69" s="16"/>
-      <c r="R69" s="17"/>
-      <c r="S69" s="33"/>
-      <c r="T69" s="17"/>
-      <c r="U69" s="33"/>
-      <c r="V69" s="16"/>
-      <c r="W69" s="16"/>
-      <c r="X69" s="16"/>
-      <c r="Y69" s="17"/>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B69" s="5"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="40"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="15"/>
+      <c r="K69" s="32"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="15"/>
+      <c r="P69" s="32"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="15"/>
+      <c r="S69" s="32"/>
+      <c r="T69" s="15"/>
+      <c r="U69" s="32"/>
+      <c r="V69" s="1"/>
+      <c r="W69" s="1"/>
+      <c r="X69" s="1"/>
+      <c r="Y69" s="15"/>
+    </row>
+    <row r="70" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="7"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="38"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="16"/>
+      <c r="O70" s="17"/>
+      <c r="P70" s="33"/>
+      <c r="Q70" s="16"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="17"/>
+      <c r="U70" s="33"/>
+      <c r="V70" s="16"/>
+      <c r="W70" s="16"/>
+      <c r="X70" s="16"/>
+      <c r="Y70" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="C8:D9"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="S8:Y8"/>
-    <mergeCell ref="U9:Y9"/>
-    <mergeCell ref="E8:F10"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="K9:O9"/>
-    <mergeCell ref="P9:R9"/>
-    <mergeCell ref="G8:R8"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="S9:Y9"/>
+    <mergeCell ref="U10:Y10"/>
+    <mergeCell ref="E9:F11"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="K10:O10"/>
+    <mergeCell ref="P10:R10"/>
+    <mergeCell ref="G9:R9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/개발일정/개발일정계획표.xlsx
+++ b/docs/개발일정/개발일정계획표.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>TASK</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -356,6 +356,29 @@
   </si>
   <si>
     <t>ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>→</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -706,7 +729,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -848,6 +871,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -857,13 +889,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AJ11" sqref="AJ11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1233,87 +1259,87 @@
     </row>
     <row r="8" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="9" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="47" t="s">
+      <c r="C9" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47" t="s">
+      <c r="D9" s="50"/>
+      <c r="E9" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="49" t="s">
+      <c r="F9" s="50"/>
+      <c r="G9" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="49"/>
-      <c r="O9" s="49"/>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="48" t="s">
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
+      <c r="T9" s="51"/>
+      <c r="U9" s="51"/>
+      <c r="V9" s="51"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="51"/>
+      <c r="Y9" s="51"/>
     </row>
     <row r="10" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="49" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49" t="s">
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="49"/>
-      <c r="O10" s="49"/>
-      <c r="P10" s="49" t="s">
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="49"/>
-      <c r="S10" s="48" t="s">
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48" t="s">
+      <c r="T10" s="51"/>
+      <c r="U10" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
+      <c r="V10" s="51"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="51"/>
+      <c r="Y10" s="51"/>
     </row>
     <row r="11" spans="2:25" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="47"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="22" t="s">
         <v>53</v>
       </c>
       <c r="D11" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
       <c r="G11" s="23">
         <v>16</v>
       </c>
@@ -1565,8 +1591,10 @@
       <c r="G17" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="48"/>
       <c r="J17" s="15"/>
       <c r="K17" s="32"/>
       <c r="L17" s="1"/>
@@ -1599,10 +1627,12 @@
         <v>21</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="1"/>
+        <v>101</v>
+      </c>
+      <c r="H18" s="49" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="48"/>
       <c r="J18" s="15"/>
       <c r="K18" s="32"/>
       <c r="L18" s="1"/>
@@ -1635,8 +1665,10 @@
         <v>24</v>
       </c>
       <c r="G19" s="46"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="45" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="48"/>
       <c r="J19" s="15"/>
       <c r="K19" s="32"/>
       <c r="L19" s="1"/>
@@ -1669,8 +1701,10 @@
         <v>26</v>
       </c>
       <c r="G20" s="40"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="48"/>
       <c r="J20" s="15"/>
       <c r="K20" s="32"/>
       <c r="L20" s="1"/>
@@ -1703,8 +1737,10 @@
         <v>28</v>
       </c>
       <c r="G21" s="46"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="48"/>
       <c r="J21" s="15"/>
       <c r="K21" s="32"/>
       <c r="L21" s="1"/>
@@ -1738,8 +1774,8 @@
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="26"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="32"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
@@ -1772,8 +1808,8 @@
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="26"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="32"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -1808,8 +1844,8 @@
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="26"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="32"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -1842,8 +1878,8 @@
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="26"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="32"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
@@ -1876,8 +1912,8 @@
       </c>
       <c r="G26" s="40"/>
       <c r="H26" s="26"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="32"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -1913,8 +1949,8 @@
       <c r="G27" s="40"/>
       <c r="H27" s="1"/>
       <c r="I27" s="26"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="32"/>
+      <c r="J27" s="44"/>
+      <c r="K27" s="45"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1947,8 +1983,8 @@
       <c r="G28" s="40"/>
       <c r="H28" s="1"/>
       <c r="I28" s="26"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="32"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="45"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1981,8 +2017,8 @@
       <c r="G29" s="40"/>
       <c r="H29" s="1"/>
       <c r="I29" s="26"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="32"/>
+      <c r="J29" s="44"/>
+      <c r="K29" s="45"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2014,7 +2050,7 @@
       <c r="F30" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="50"/>
+      <c r="G30" s="47"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="15"/>
@@ -2048,7 +2084,7 @@
       <c r="F31" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="G31" s="50"/>
+      <c r="G31" s="47"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="15"/>
@@ -2082,7 +2118,7 @@
       <c r="F32" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="G32" s="50"/>
+      <c r="G32" s="47"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="15"/>
@@ -2116,7 +2152,7 @@
       <c r="F33" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="50"/>
+      <c r="G33" s="47"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="15"/>
@@ -2148,7 +2184,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="37"/>
-      <c r="G34" s="50"/>
+      <c r="G34" s="47"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="15"/>
@@ -2182,7 +2218,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="45"/>
+      <c r="K35" s="53"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -2212,7 +2248,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="45"/>
+      <c r="K36" s="53"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
@@ -2242,7 +2278,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="45"/>
+      <c r="K37" s="53"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
@@ -2273,8 +2309,8 @@
       <c r="I38" s="1"/>
       <c r="J38" s="15"/>
       <c r="K38" s="32"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="1"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="14"/>
       <c r="N38" s="1"/>
       <c r="O38" s="15"/>
       <c r="P38" s="32"/>
@@ -2303,8 +2339,8 @@
       <c r="I39" s="1"/>
       <c r="J39" s="15"/>
       <c r="K39" s="32"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="1"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="14"/>
       <c r="N39" s="1"/>
       <c r="O39" s="15"/>
       <c r="P39" s="32"/>
@@ -2329,11 +2365,13 @@
       <c r="E40" s="2"/>
       <c r="F40" s="37"/>
       <c r="G40" s="40"/>
-      <c r="H40" s="14"/>
+      <c r="H40" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="I40" s="26"/>
       <c r="J40" s="15"/>
       <c r="K40" s="32"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="48"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="15"/>
@@ -2359,11 +2397,13 @@
       <c r="E41" s="2"/>
       <c r="F41" s="37"/>
       <c r="G41" s="40"/>
-      <c r="H41" s="14"/>
+      <c r="H41" s="14" t="s">
+        <v>103</v>
+      </c>
       <c r="I41" s="26"/>
       <c r="J41" s="15"/>
       <c r="K41" s="32"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="48"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="15"/>
@@ -2390,7 +2430,7 @@
       <c r="F42" s="37"/>
       <c r="G42" s="40"/>
       <c r="H42" s="26"/>
-      <c r="I42" s="14"/>
+      <c r="I42" s="26"/>
       <c r="J42" s="15"/>
       <c r="K42" s="32"/>
       <c r="L42" s="1"/>
@@ -2420,7 +2460,7 @@
       <c r="F43" s="37"/>
       <c r="G43" s="40"/>
       <c r="H43" s="26"/>
-      <c r="I43" s="14"/>
+      <c r="I43" s="26"/>
       <c r="J43" s="15"/>
       <c r="K43" s="32"/>
       <c r="L43" s="1"/>
@@ -2450,7 +2490,7 @@
       <c r="F44" s="37"/>
       <c r="G44" s="40"/>
       <c r="H44" s="26"/>
-      <c r="I44" s="14"/>
+      <c r="I44" s="26"/>
       <c r="J44" s="15"/>
       <c r="K44" s="32"/>
       <c r="L44" s="1"/>
@@ -2481,7 +2521,7 @@
       <c r="G45" s="40"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="44"/>
       <c r="K45" s="32"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
@@ -2511,7 +2551,7 @@
       <c r="G46" s="40"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="35"/>
+      <c r="J46" s="44"/>
       <c r="K46" s="32"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2541,7 +2581,7 @@
       <c r="G47" s="40"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="35"/>
+      <c r="J47" s="44"/>
       <c r="K47" s="32"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2571,7 +2611,7 @@
       <c r="G48" s="40"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="35"/>
+      <c r="J48" s="44"/>
       <c r="K48" s="32"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2601,8 +2641,8 @@
       <c r="G49" s="40"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="32"/>
+      <c r="J49" s="44"/>
+      <c r="K49" s="53"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -2632,7 +2672,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="45"/>
+      <c r="K50" s="53"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -2662,7 +2702,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="45"/>
+      <c r="K51" s="53"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
@@ -2692,7 +2732,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="45"/>
+      <c r="K52" s="53"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -2719,11 +2759,13 @@
       <c r="E53" s="2"/>
       <c r="F53" s="37"/>
       <c r="G53" s="40"/>
-      <c r="H53" s="14"/>
+      <c r="H53" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="1"/>
+      <c r="K53" s="53"/>
+      <c r="L53" s="48"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
       <c r="O53" s="15"/>
@@ -2749,11 +2791,13 @@
       <c r="E54" s="2"/>
       <c r="F54" s="37"/>
       <c r="G54" s="40"/>
-      <c r="H54" s="14"/>
+      <c r="H54" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="I54" s="1"/>
       <c r="J54" s="15"/>
       <c r="K54" s="32"/>
-      <c r="L54" s="1"/>
+      <c r="L54" s="48"/>
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
       <c r="O54" s="15"/>
@@ -2779,11 +2823,13 @@
       <c r="E55" s="2"/>
       <c r="F55" s="37"/>
       <c r="G55" s="40"/>
-      <c r="H55" s="14"/>
+      <c r="H55" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="I55" s="1"/>
       <c r="J55" s="15"/>
       <c r="K55" s="32"/>
-      <c r="L55" s="1"/>
+      <c r="L55" s="48"/>
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
       <c r="O55" s="15"/>
@@ -2809,11 +2855,13 @@
       <c r="E56" s="2"/>
       <c r="F56" s="37"/>
       <c r="G56" s="40"/>
-      <c r="H56" s="14"/>
+      <c r="H56" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="15"/>
       <c r="K56" s="32"/>
-      <c r="L56" s="1"/>
+      <c r="L56" s="48"/>
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
       <c r="O56" s="15"/>
